--- a/tests/data/test_RCP_database_raw_download.xlsx
+++ b/tests/data/test_RCP_database_raw_download.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B79FC-21FB-CC44-B4AC-C35EAAF6BF14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,37 +27,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
-    <t xml:space="preserve">Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_model - a_scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJ/y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Note that RCP 6.0 concentration data are not harmonized to the same base year across the models yet. Harmonized data is under preparation and will be added soon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Energy|Coal</t>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Primary Energy</t>
+  </si>
+  <si>
+    <t>EJ/y</t>
+  </si>
+  <si>
+    <t>1) Note that RCP 6.0 concentration data are not harmonized to the same base year across the models yet. Harmonized data is under preparation and will be added soon.</t>
+  </si>
+  <si>
+    <t>Primary Energy|Coal</t>
   </si>
   <si>
     <t xml:space="preserve"> © RCP Database (Version 2.0.4) http://www.iiasa.ac.at/web-apps/tnt/RcpDb 
@@ -71,36 +73,23 @@
 van Vuuren, D.P., B. Eickhout, P.L. Lucas, and M.G.J. den Elzen, 2006. Long-term multi-gas scenarios to stabilise radiative forcing - Exploring costs and benefits within an integrated assessment framework. Multigas Mitigation and Climate Policy. The Energy Journal Special Issue.
 van Vuuren, D., M. den Elzen, P. Lucas, B. Eickhout, B. Strengers, B. van Ruijven, S. Wonink, R. van Houdt, 2007. Stabilizing greenhouse gas concentrations at low levels: an assessment of reduction strategies and costs. Climatic Change, doi:10.1007/s/10584-006-9172-9.</t>
   </si>
+  <si>
+    <t>model_a - scen_a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -130,7 +119,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -138,89 +127,349 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -233,10 +482,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2005</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>2010</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -252,27 +501,27 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -284,27 +533,27 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -316,9 +565,9 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="250.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -338,10 +587,9 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/tests/data/test_RCP_database_raw_download.xlsx
+++ b/tests/data/test_RCP_database_raw_download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B79FC-21FB-CC44-B4AC-C35EAAF6BF14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA52316D-3A60-1E42-A155-AB5675F55940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Primary Energy</t>
   </si>
   <si>
-    <t>EJ/y</t>
-  </si>
-  <si>
     <t>1) Note that RCP 6.0 concentration data are not harmonized to the same base year across the models yet. Harmonized data is under preparation and will be added soon.</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>model_a - scen_a</t>
+  </si>
+  <si>
+    <t>EJ</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -535,16 +535,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>0.5</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="4" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>

--- a/tests/data/test_RCP_database_raw_download.xlsx
+++ b/tests/data/test_RCP_database_raw_download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA52316D-3A60-1E42-A155-AB5675F55940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E12201-2513-7446-911B-79F68EF718E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>model_a - scen_a</t>
   </si>
   <si>
-    <t>EJ</t>
+    <t>EJ/yr</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/tests/data/test_RCP_database_raw_download.xlsx
+++ b/tests/data/test_RCP_database_raw_download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/Github/pyam/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B79FC-21FB-CC44-B4AC-C35EAAF6BF14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E12201-2513-7446-911B-79F68EF718E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Primary Energy</t>
   </si>
   <si>
-    <t>EJ/y</t>
-  </si>
-  <si>
     <t>1) Note that RCP 6.0 concentration data are not harmonized to the same base year across the models yet. Harmonized data is under preparation and will be added soon.</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>model_a - scen_a</t>
+  </si>
+  <si>
+    <t>EJ/yr</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -535,16 +535,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>0.5</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="4" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
